--- a/Models/Inputs/management_scenarios/sdi_based/sdi_35_full.xlsx
+++ b/Models/Inputs/management_scenarios/sdi_based/sdi_35_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Research\TCSI conservation finance\Models\Inputs\management_scenarios\sdi_based\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swflake\Documents\TCSI-conservation-finance\Models\Inputs\management_scenarios\sdi_based\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF60EFF-35DF-4526-8F7C-1A651AA36885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D946C6-0013-4C69-B7DE-54C8DDD48F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,6 +126,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,10 +173,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,9 +195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +235,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,15 +493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -508,7 +514,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -534,8 +540,8 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.06</v>
+      <c r="C2" s="2">
+        <v>0.03</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -562,8 +568,8 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.06</v>
+      <c r="C3" s="2">
+        <v>0.03</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -590,8 +596,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.06</v>
+      <c r="C4" s="2">
+        <v>0.03</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -618,8 +624,8 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.06</v>
+      <c r="C5" s="2">
+        <v>0.03</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -646,8 +652,8 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.06</v>
+      <c r="C6" s="2">
+        <v>0.03</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -674,8 +680,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.06</v>
+      <c r="C7" s="2">
+        <v>0.03</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -702,8 +708,8 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.06</v>
+      <c r="C8" s="2">
+        <v>0.03</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -730,8 +736,8 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.06</v>
+      <c r="C9" s="2">
+        <v>0.03</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -758,8 +764,8 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.06</v>
+      <c r="C10" s="2">
+        <v>0.03</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -786,8 +792,8 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.06</v>
+      <c r="C11" s="2">
+        <v>0.03</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -814,8 +820,8 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.06</v>
+      <c r="C12" s="2">
+        <v>0.03</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -842,8 +848,8 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.06</v>
+      <c r="C13" s="2">
+        <v>0.03</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -870,8 +876,8 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.06</v>
+      <c r="C14" s="2">
+        <v>0.03</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -898,8 +904,8 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.06</v>
+      <c r="C15" s="2">
+        <v>0.03</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -920,14 +926,14 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>4001</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.06</v>
+      <c r="C16" s="2">
+        <v>0.03</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -954,8 +960,8 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.06</v>
+      <c r="C17" s="2">
+        <v>0.03</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -982,8 +988,8 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.06</v>
+      <c r="C18" s="2">
+        <v>0.03</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1010,8 +1016,8 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.06</v>
+      <c r="C19" s="2">
+        <v>0.03</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1038,8 +1044,8 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.06</v>
+      <c r="C20" s="2">
+        <v>0.03</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1066,8 +1072,8 @@
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.06</v>
+      <c r="C21" s="2">
+        <v>0.03</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1094,8 +1100,8 @@
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.06</v>
+      <c r="C22" s="2">
+        <v>0.03</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1122,8 +1128,8 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.06</v>
+      <c r="C23" s="2">
+        <v>0.03</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1150,8 +1156,8 @@
       <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.06</v>
+      <c r="C24" s="2">
+        <v>0.03</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1178,8 +1184,8 @@
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.06</v>
+      <c r="C25" s="2">
+        <v>0.03</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1206,8 +1212,8 @@
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1">
-        <v>0.06</v>
+      <c r="C26" s="2">
+        <v>0.03</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1234,8 +1240,8 @@
       <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="1">
-        <v>0.06</v>
+      <c r="C27" s="2">
+        <v>0.03</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1262,8 +1268,8 @@
       <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="1">
-        <v>0.05</v>
+      <c r="C28" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1290,8 +1296,8 @@
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1">
-        <v>0.05</v>
+      <c r="C29" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1318,8 +1324,8 @@
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="1">
-        <v>0.05</v>
+      <c r="C30" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1346,8 +1352,8 @@
       <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="1">
-        <v>0.05</v>
+      <c r="C31" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1374,8 +1380,8 @@
       <c r="B32" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="1">
-        <v>0.05</v>
+      <c r="C32" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1402,8 +1408,8 @@
       <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="1">
-        <v>0.05</v>
+      <c r="C33" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1430,8 +1436,8 @@
       <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="1">
-        <v>0.05</v>
+      <c r="C34" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1458,8 +1464,8 @@
       <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="1">
-        <v>0.05</v>
+      <c r="C35" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1486,8 +1492,8 @@
       <c r="B36" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="1">
-        <v>0.05</v>
+      <c r="C36" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1514,8 +1520,8 @@
       <c r="B37" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="1">
-        <v>0.05</v>
+      <c r="C37" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1542,8 +1548,8 @@
       <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="1">
-        <v>0.05</v>
+      <c r="C38" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1570,8 +1576,8 @@
       <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="1">
-        <v>0.05</v>
+      <c r="C39" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1598,8 +1604,8 @@
       <c r="B40" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.05</v>
+      <c r="C40" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1626,8 +1632,8 @@
       <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.05</v>
+      <c r="C41" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1654,8 +1660,8 @@
       <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="1">
-        <v>0.05</v>
+      <c r="C42" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1682,8 +1688,8 @@
       <c r="B43" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="1">
-        <v>0.05</v>
+      <c r="C43" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1710,8 +1716,8 @@
       <c r="B44" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="1">
-        <v>0.05</v>
+      <c r="C44" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1738,8 +1744,8 @@
       <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="1">
-        <v>0.05</v>
+      <c r="C45" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1766,8 +1772,8 @@
       <c r="B46" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="1">
-        <v>0.05</v>
+      <c r="C46" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1794,8 +1800,8 @@
       <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="1">
-        <v>0.01</v>
+      <c r="C47" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1822,8 +1828,8 @@
       <c r="B48" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="1">
-        <v>0.01</v>
+      <c r="C48" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1850,8 +1856,8 @@
       <c r="B49" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="1">
-        <v>0.01</v>
+      <c r="C49" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1878,8 +1884,8 @@
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="1">
-        <v>0.01</v>
+      <c r="C50" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1906,8 +1912,8 @@
       <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="1">
-        <v>0.01</v>
+      <c r="C51" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1934,8 +1940,8 @@
       <c r="B52" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="1">
-        <v>0.01</v>
+      <c r="C52" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1962,8 +1968,8 @@
       <c r="B53" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="1">
-        <v>0.01</v>
+      <c r="C53" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1990,8 +1996,8 @@
       <c r="B54" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="1">
-        <v>0.01</v>
+      <c r="C54" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2018,8 +2024,8 @@
       <c r="B55" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="1">
-        <v>0.01</v>
+      <c r="C55" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2046,8 +2052,8 @@
       <c r="B56" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="1">
-        <v>0.01</v>
+      <c r="C56" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2074,8 +2080,8 @@
       <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="1">
-        <v>0.01</v>
+      <c r="C57" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2102,8 +2108,8 @@
       <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="1">
-        <v>0.01</v>
+      <c r="C58" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2130,8 +2136,8 @@
       <c r="B59" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="1">
-        <v>0.01</v>
+      <c r="C59" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2158,8 +2164,8 @@
       <c r="B60" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="1">
-        <v>0.01</v>
+      <c r="C60" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2186,8 +2192,8 @@
       <c r="B61" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="1">
-        <v>0.01</v>
+      <c r="C61" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2214,8 +2220,8 @@
       <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="1">
-        <v>0.01</v>
+      <c r="C62" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2242,8 +2248,8 @@
       <c r="B63" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="1">
-        <v>0.01</v>
+      <c r="C63" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2270,8 +2276,8 @@
       <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="1">
-        <v>0.01</v>
+      <c r="C64" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2298,8 +2304,8 @@
       <c r="B65" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="1">
-        <v>0.01</v>
+      <c r="C65" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2326,7 +2332,7 @@
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>0.04</v>
       </c>
       <c r="D66">
@@ -2354,7 +2360,7 @@
       <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>0.04</v>
       </c>
       <c r="D67">
@@ -2382,7 +2388,7 @@
       <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>0.04</v>
       </c>
       <c r="D68">
@@ -2410,7 +2416,7 @@
       <c r="B69" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <v>0.04</v>
       </c>
       <c r="D69">
@@ -2438,7 +2444,7 @@
       <c r="B70" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>0.04</v>
       </c>
       <c r="D70">
@@ -2466,7 +2472,7 @@
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>0.04</v>
       </c>
       <c r="D71">
@@ -2494,7 +2500,7 @@
       <c r="B72" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>0.04</v>
       </c>
       <c r="D72">
@@ -2522,7 +2528,7 @@
       <c r="B73" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>0.04</v>
       </c>
       <c r="D73">
@@ -2550,7 +2556,7 @@
       <c r="B74" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>0.04</v>
       </c>
       <c r="D74">
@@ -2578,7 +2584,7 @@
       <c r="B75" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>0.04</v>
       </c>
       <c r="D75">
@@ -2606,7 +2612,7 @@
       <c r="B76" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>0.04</v>
       </c>
       <c r="D76">
@@ -2634,7 +2640,7 @@
       <c r="B77" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>0.04</v>
       </c>
       <c r="D77">
@@ -2662,7 +2668,7 @@
       <c r="B78" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <v>0.04</v>
       </c>
       <c r="D78">
@@ -2690,7 +2696,7 @@
       <c r="B79" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <v>0.04</v>
       </c>
       <c r="D79">
@@ -2718,7 +2724,7 @@
       <c r="B80" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <v>0.04</v>
       </c>
       <c r="D80">
@@ -2746,7 +2752,7 @@
       <c r="B81" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <v>0.04</v>
       </c>
       <c r="D81">
@@ -2774,7 +2780,7 @@
       <c r="B82" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>0.04</v>
       </c>
       <c r="D82">
@@ -2802,7 +2808,7 @@
       <c r="B83" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>0.04</v>
       </c>
       <c r="D83">
@@ -2830,7 +2836,7 @@
       <c r="B84" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <v>0.04</v>
       </c>
       <c r="D84">
@@ -2858,7 +2864,7 @@
       <c r="B85" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>0.04</v>
       </c>
       <c r="D85">
@@ -2886,7 +2892,7 @@
       <c r="B86" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>0.04</v>
       </c>
       <c r="D86">
@@ -2914,7 +2920,7 @@
       <c r="B87" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>0.04</v>
       </c>
       <c r="D87">
@@ -2942,7 +2948,7 @@
       <c r="B88" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>0.04</v>
       </c>
       <c r="D88">
@@ -2970,7 +2976,7 @@
       <c r="B89" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>0.04</v>
       </c>
       <c r="D89">
